--- a/OnBoard/output/trust/catch/Catch_Trust_48.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_48.xlsx
@@ -446,7 +446,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.03</v>
+        <v>0.061</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -607,7 +610,10 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.02</v>
+        <v>0.061</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -733,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="11">
@@ -815,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="12">
@@ -856,7 +862,7 @@
         <v>157</v>
       </c>
       <c r="I12">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="13">
@@ -897,7 +903,7 @@
         <v>3397</v>
       </c>
       <c r="I13">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="14">
@@ -938,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="15">
@@ -979,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="16">
@@ -1020,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="17">
@@ -1058,10 +1064,10 @@
         <v>0.052</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I17">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="18">
@@ -1102,7 +1108,7 @@
         <v>54</v>
       </c>
       <c r="I18">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="19">
@@ -1143,7 +1149,7 @@
         <v>154</v>
       </c>
       <c r="I19">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="20">
@@ -1184,7 +1190,7 @@
         <v>1797</v>
       </c>
       <c r="I20">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="21">
@@ -1222,10 +1228,10 @@
         <v>0.001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I21">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="22">
@@ -1266,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="23">
@@ -1307,7 +1313,7 @@
         <v>12</v>
       </c>
       <c r="I23">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="24">
@@ -1348,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1395,7 @@
         <v>14</v>
       </c>
       <c r="I25">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="26">
@@ -1430,7 +1436,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="27">
@@ -1471,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="28">
@@ -1512,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="29">
@@ -1553,7 +1559,7 @@
         <v>43</v>
       </c>
       <c r="I29">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1594,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1635,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="I31">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="32">
@@ -1676,7 +1682,7 @@
         <v>8</v>
       </c>
       <c r="I32">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="33">
@@ -1714,10 +1720,10 @@
         <v>0.576</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I33">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="34">
@@ -1758,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="35">
@@ -1799,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="36">
@@ -1840,7 +1846,7 @@
         <v>53</v>
       </c>
       <c r="I36">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1881,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="I37">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
     <row r="38">
@@ -1919,10 +1925,10 @@
         <v>0.082</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38">
-        <v>7.106583333333333</v>
+        <v>7.100583333333333</v>
       </c>
     </row>
   </sheetData>
